--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,372 +63,372 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>Dr. Alan Turing</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>F0001</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>Dr. Alan Turing</t>
-  </si>
-  <si>
     <t>Ph.D.</t>
   </si>
   <si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>F0002</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
   </si>
   <si>
     <t>Master's</t>
@@ -948,22 +945,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>25.0</v>
       </c>
       <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>25.0</v>
@@ -986,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1064,7 +1061,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>50.0</v>
@@ -1151,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>25.0</v>
@@ -1670,10 +1667,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>136</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>137</v>
@@ -1685,7 +1682,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
@@ -1699,16 +1696,16 @@
         <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1722,25 +1719,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
@@ -1748,19 +1745,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>143</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1774,22 +1771,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>153</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
@@ -1816,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -1824,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1832,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1840,7 +1837,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1848,15 +1845,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1864,7 +1861,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -1872,23 +1869,23 @@
         <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1906,89 +1903,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" t="s" s="40">
         <v>175</v>
-      </c>
-      <c r="I1" t="s" s="40">
-        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,372 +63,372 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>Dr. Alan Turing</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>F0001</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>Dr. Alan Turing</t>
-  </si>
-  <si>
     <t>Ph.D.</t>
   </si>
   <si>
@@ -441,9 +441,6 @@
     <t>F0002</t>
   </si>
   <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
     <t>Master's</t>
   </si>
   <si>
@@ -589,6 +586,27 @@
   </si>
   <si>
     <t>Alice Smith, Bob Johnson, Lucka Racki, Helen Jones, David Lee</t>
+  </si>
+  <si>
+    <t>EV0001</t>
+  </si>
+  <si>
+    <t>idk</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thorn</t>
+  </si>
+  <si>
+    <t>02/25/2025 12:59</t>
+  </si>
+  <si>
+    <t>$5</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -948,22 +966,22 @@
         <v>17</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>25.0</v>
       </c>
       <c r="F3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="H3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -977,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>25.0</v>
@@ -986,13 +1004,13 @@
         <v>23</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1064,7 +1082,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>50.0</v>
@@ -1151,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n" s="0">
         <v>25.0</v>
@@ -1670,10 +1688,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>136</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>137</v>
@@ -1699,16 +1717,16 @@
         <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1722,25 +1740,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>145</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
@@ -1748,19 +1766,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>143</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1774,22 +1792,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>153</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
@@ -1816,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -1824,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1832,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1840,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1848,15 +1866,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1864,7 +1882,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -1872,23 +1890,23 @@
         <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,89 +1924,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" t="s" s="40">
         <v>175</v>
-      </c>
-      <c r="I1" t="s" s="40">
-        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>190</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
   <si>
     <t>Course Code</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
   <si>
     <t>F0002</t>
@@ -1682,30 +1685,30 @@
         <v>139</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>72</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1719,25 +1722,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
@@ -1745,19 +1748,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1771,22 +1774,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
@@ -1813,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
@@ -1821,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -1829,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
@@ -1845,15 +1848,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1861,7 +1864,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1869,23 +1872,23 @@
         <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1903,89 +1906,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s" s="39">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="40">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -438,7 +438,7 @@
     <t>turing@university.edu</t>
   </si>
   <si>
-    <t>hello</t>
+    <t>k</t>
   </si>
   <si>
     <t>F0002</t>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -231,6 +231,9 @@
     <t>custom</t>
   </si>
   <si>
+    <t>ENG101, MATH001</t>
+  </si>
+  <si>
     <t>_</t>
   </si>
   <si>
@@ -436,9 +439,6 @@
   </si>
   <si>
     <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>hello</t>
   </si>
   <si>
     <t>F0002</t>
@@ -1275,36 +1275,36 @@
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>69</v>
@@ -1316,33 +1316,33 @@
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>69</v>
@@ -1351,33 +1351,33 @@
         <v>70</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>68</v>
@@ -1389,33 +1389,33 @@
         <v>70</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="n" s="0">
         <v>0.6</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>68</v>
@@ -1427,36 +1427,36 @@
         <v>70</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>69</v>
@@ -1465,33 +1465,33 @@
         <v>70</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>68</v>
@@ -1503,36 +1503,36 @@
         <v>70</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>69</v>
@@ -1541,33 +1541,33 @@
         <v>70</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>68</v>
@@ -1579,36 +1579,36 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>69</v>
@@ -1617,16 +1617,16 @@
         <v>70</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>0.2</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1644,25 +1644,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="23">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
         <v>55</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="28">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>62</v>
@@ -1670,19 +1670,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1691,7 +1691,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1717,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1728,7 +1728,7 @@
         <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>147</v>
@@ -1743,7 +1743,7 @@
         <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -1769,7 +1769,7 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1780,7 +1780,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>155</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>166</v>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaska\Desktop\Labs 99x\UniversityManagementApp\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C787481-8EF3-417E-9247-935287B6860E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Courses" r:id="rId3" sheetId="1"/>
-    <sheet name="Students" r:id="rId4" sheetId="2"/>
-    <sheet name="Faculties" r:id="rId5" sheetId="3"/>
-    <sheet name="Subjects" r:id="rId6" sheetId="4"/>
-    <sheet name="Events" r:id="rId7" sheetId="5"/>
+    <sheet name="Courses" sheetId="1" r:id="rId1"/>
+    <sheet name="Students" sheetId="2" r:id="rId2"/>
+    <sheet name="Faculties" sheetId="3" r:id="rId3"/>
+    <sheet name="Subjects" sheetId="4" r:id="rId4"/>
+    <sheet name="Events" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>Course Code</t>
   </si>
@@ -436,9 +444,6 @@
   </si>
   <si>
     <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>k</t>
   </si>
   <si>
     <t>F0002</t>
@@ -594,215 +599,214 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="41">
-    <font>
-      <sz val="11.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="41" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -810,7 +814,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -827,1171 +831,1501 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="8">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="9">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="F2" t="s" s="0">
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="F4" t="s" s="0">
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="n" s="0">
-        <v>42.0</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B9" t="s" s="0">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="F9" t="s" s="0">
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="n" s="0">
-        <v>25.0</v>
-      </c>
-      <c r="F10" t="s" s="0">
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B11" t="s" s="0">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>48</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="B1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s" s="15">
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="G1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s" s="17">
+      <c r="H1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s" s="18">
+      <c r="I1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s" s="19">
+      <c r="J1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s" s="20">
+      <c r="K1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s" s="21">
+      <c r="L1" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" t="n" s="0">
+      <c r="K2">
         <v>0.4</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="K3" t="n" s="0">
+      <c r="K3">
         <v>0.5</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>85</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>86</v>
       </c>
-      <c r="K4" t="n" s="0">
+      <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>91</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>70</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>92</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="n" s="0">
+      <c r="K5">
         <v>0.6</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>98</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="n" s="0">
+      <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>78</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>105</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="n" s="0">
+      <c r="K7">
         <v>0.5</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>110</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>111</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>112</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="n" s="0">
+      <c r="K8">
         <v>0.4</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>118</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>119</v>
       </c>
-      <c r="K9" t="n" s="0">
+      <c r="K9">
         <v>0.5</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>121</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>122</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>124</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>125</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>71</v>
       </c>
-      <c r="K10" t="n" s="0">
+      <c r="K10">
         <v>0.5</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>128</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>129</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>78</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>69</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>70</v>
       </c>
-      <c r="I11" t="s" s="0">
+      <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" t="s" s="0">
+      <c r="J11" t="s">
         <v>130</v>
       </c>
-      <c r="K11" t="n" s="0">
+      <c r="K11">
         <v>0.2</v>
       </c>
-      <c r="L11" t="s" s="0">
+      <c r="L11" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s" s="23">
+      <c r="B1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="24">
+      <c r="C1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s" s="25">
+      <c r="D1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="E1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s" s="27">
+      <c r="F1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="G1" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="H1" t="s" s="29">
+      <c r="H1" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="C4" t="s" s="0">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
         <v>137</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>148</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="H4" t="s" s="0">
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="30">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="31">
+      <c r="B1" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="B6" t="s">
         <v>163</v>
       </c>
-      <c r="B6" t="s" s="0">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+      <c r="B9" t="s">
         <v>167</v>
       </c>
-      <c r="B9" t="s" s="0">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+      <c r="B10" t="s">
         <v>169</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>170</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s" s="33">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="34">
+      <c r="D1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s" s="35">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s" s="36">
+      <c r="F1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F1" t="s" s="37">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s" s="38">
+      <c r="H1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s" s="40">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="B2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s">
         <v>178</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s">
         <v>179</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s">
         <v>180</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
         <v>181</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>182</v>
       </c>
-      <c r="H2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="G3" t="s" s="0">
+      <c r="I3" t="s">
         <v>189</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>190</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
   <si>
     <t>Course Code</t>
   </si>
@@ -231,9 +231,6 @@
     <t>custom</t>
   </si>
   <si>
-    <t>ENG101, MATH001</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
@@ -567,7 +564,7 @@
     <t>Free</t>
   </si>
   <si>
-    <t>Alice Smith, Bob Johnson, Jennifer Davis, Helen Jones</t>
+    <t>Alice Smith, Bob Johnson, Jennifer Davis, Helen Jones, S20250010</t>
   </si>
   <si>
     <t>EV002</t>
@@ -1275,36 +1272,36 @@
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>72</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>79</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>69</v>
@@ -1316,33 +1313,33 @@
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="E4" t="s" s="0">
-        <v>85</v>
-      </c>
       <c r="F4" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>69</v>
@@ -1351,33 +1348,33 @@
         <v>70</v>
       </c>
       <c r="I4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>86</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>68</v>
@@ -1389,33 +1386,33 @@
         <v>70</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" t="n" s="0">
         <v>0.6</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>68</v>
@@ -1427,36 +1424,36 @@
         <v>70</v>
       </c>
       <c r="I6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="E7" t="s" s="0">
-        <v>105</v>
-      </c>
       <c r="F7" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>69</v>
@@ -1465,33 +1462,33 @@
         <v>70</v>
       </c>
       <c r="I7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>68</v>
@@ -1503,36 +1500,36 @@
         <v>70</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>118</v>
-      </c>
       <c r="F9" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>69</v>
@@ -1541,33 +1538,33 @@
         <v>70</v>
       </c>
       <c r="I9" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s" s="0">
         <v>119</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>68</v>
@@ -1579,36 +1576,36 @@
         <v>70</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="D11" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>130</v>
-      </c>
       <c r="F11" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>69</v>
@@ -1617,16 +1614,16 @@
         <v>70</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>0.2</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1644,25 +1641,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s" s="23">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="24">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s" s="25">
         <v>133</v>
-      </c>
-      <c r="D1" t="s" s="25">
-        <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
         <v>55</v>
       </c>
       <c r="F1" t="s" s="27">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s" s="28">
         <v>135</v>
-      </c>
-      <c r="G1" t="s" s="28">
-        <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>62</v>
@@ -1670,19 +1667,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>139</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1691,24 +1688,24 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1717,50 +1714,50 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
-      </c>
       <c r="H4" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>143</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1769,33 +1766,33 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -1824,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1832,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1840,7 +1837,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1848,15 +1845,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1864,31 +1861,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1906,89 +1903,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" t="s" s="40">
         <v>175</v>
-      </c>
-      <c r="I1" t="s" s="40">
-        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="191">
   <si>
     <t>Course Code</t>
   </si>
@@ -438,6 +438,9 @@
     <t>turing@university.edu</t>
   </si>
   <si>
+    <t>hi</t>
+  </si>
+  <si>
     <t>F0002</t>
   </si>
   <si>
@@ -564,7 +567,7 @@
     <t>Free</t>
   </si>
   <si>
-    <t>Alice Smith, Bob Johnson, Jennifer Davis, Helen Jones, S20250010</t>
+    <t>Alice Smith, Bob Johnson, Jennifer Davis, Helen Jones</t>
   </si>
   <si>
     <t>EV002</t>
@@ -1688,24 +1691,24 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>72</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1719,25 +1722,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
@@ -1745,19 +1748,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1771,22 +1774,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>137</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
@@ -1813,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
@@ -1821,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -1829,7 +1832,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1837,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
@@ -1845,15 +1848,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1861,7 +1864,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1869,23 +1872,23 @@
         <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1903,89 +1906,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s" s="39">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="40">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -564,7 +564,7 @@
     <t>Free</t>
   </si>
   <si>
-    <t>Alice Smith, Bob Johnson, Jennifer Davis, Helen Jones, S20250010</t>
+    <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson</t>
   </si>
   <si>
     <t>EV002</t>
@@ -585,7 +585,7 @@
     <t>Paid ($20)</t>
   </si>
   <si>
-    <t>Alice Smith, Bob Johnson, Lucka Racki, Helen Jones, David Lee</t>
+    <t>David Lee, Lucka Racki, Helen Jones, Alice Smith, Bob Johnson</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,372 +63,372 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>F0001</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>Dr. Alan Turing</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>F0001</t>
-  </si>
-  <si>
     <t>Ph.D.</t>
   </si>
   <si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>Psychology</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
   <si>
     <t>Event Code</t>
@@ -1667,10 +1673,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>136</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>137</v>
@@ -1802,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1886,6 +1892,14 @@
       </c>
       <c r="B10" t="s" s="0">
         <v>169</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1903,89 +1917,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s" s="39">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s" s="40">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,511 +63,511 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>Dr. Alan Turing</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>file:/C:/Users/adria/OneDrive/Pictures/Screenshots%201/Screenshot%202025-04-02%20184051.png</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>F0001</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Computational Theory</t>
+  </si>
+  <si>
+    <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>F0002</t>
+  </si>
+  <si>
+    <t>Master's</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>bronte@university.edu</t>
+  </si>
+  <si>
+    <t>F0003</t>
+  </si>
+  <si>
+    <t>Dr. Grace Hopper</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>hopper@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 203</t>
+  </si>
+  <si>
+    <t>Intro to Programming</t>
+  </si>
+  <si>
+    <t>F0004</t>
+  </si>
+  <si>
+    <t>copeland@university.edu</t>
+  </si>
+  <si>
+    <t>F0005</t>
+  </si>
+  <si>
+    <t>Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Water and Soil</t>
+  </si>
+  <si>
+    <t>gharabaghi@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 202</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry</t>
+  </si>
+  <si>
+    <t>BIO300</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>MUSIC102</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>PSYCHO100</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Event Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Header Picture</t>
+  </si>
+  <si>
+    <t>Registered Students</t>
+  </si>
+  <si>
+    <t>EV001</t>
+  </si>
+  <si>
+    <t>Welcome Seminar</t>
+  </si>
+  <si>
+    <t>Orientation week</t>
+  </si>
+  <si>
+    <t>Auditorium</t>
+  </si>
+  <si>
+    <t>09/01/2025 10:00</t>
+  </si>
+  <si>
+    <t>Free</t>
   </si>
   <si>
     <t>custom</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>Dr. Alan Turing</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Computational Theory</t>
-  </si>
-  <si>
-    <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>F0002</t>
-  </si>
-  <si>
-    <t>Master's</t>
-  </si>
-  <si>
-    <t>English Literature</t>
-  </si>
-  <si>
-    <t>bronte@university.edu</t>
-  </si>
-  <si>
-    <t>F0003</t>
-  </si>
-  <si>
-    <t>Dr. Grace Hopper</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>hopper@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 203</t>
-  </si>
-  <si>
-    <t>Intro to Programming</t>
-  </si>
-  <si>
-    <t>F0004</t>
-  </si>
-  <si>
-    <t>copeland@university.edu</t>
-  </si>
-  <si>
-    <t>F0005</t>
-  </si>
-  <si>
-    <t>Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Water and Soil</t>
-  </si>
-  <si>
-    <t>gharabaghi@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 202</t>
-  </si>
-  <si>
-    <t>Subject Name</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry</t>
-  </si>
-  <si>
-    <t>BIO300</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>MUSIC102</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>PSYCHO100</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Event Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Date and Time</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Header Picture</t>
-  </si>
-  <si>
-    <t>Registered Students</t>
-  </si>
-  <si>
-    <t>EV001</t>
-  </si>
-  <si>
-    <t>Welcome Seminar</t>
-  </si>
-  <si>
-    <t>Orientation week</t>
-  </si>
-  <si>
-    <t>Auditorium</t>
-  </si>
-  <si>
-    <t>09/01/2025 10:00</t>
-  </si>
-  <si>
-    <t>Free</t>
   </si>
   <si>
     <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson</t>
@@ -1313,13 +1313,13 @@
         <v>69</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.5</v>
@@ -1330,19 +1330,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>78</v>
@@ -1351,13 +1351,13 @@
         <v>69</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.5</v>
@@ -1368,19 +1368,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>68</v>
@@ -1389,10 +1389,10 @@
         <v>69</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>71</v>
@@ -1406,19 +1406,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>68</v>
@@ -1427,13 +1427,13 @@
         <v>69</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>0.5</v>
@@ -1444,19 +1444,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>78</v>
@@ -1465,13 +1465,13 @@
         <v>69</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.5</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>68</v>
@@ -1503,13 +1503,13 @@
         <v>69</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.4</v>
@@ -1520,19 +1520,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>78</v>
@@ -1541,13 +1541,13 @@
         <v>69</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.5</v>
@@ -1558,19 +1558,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>68</v>
@@ -1579,10 +1579,10 @@
         <v>69</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>71</v>
@@ -1596,19 +1596,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>78</v>
@@ -1617,13 +1617,13 @@
         <v>69</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>0.2</v>
@@ -1639,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,25 +1647,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="23">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
         <v>55</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="28">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>62</v>
@@ -1673,19 +1673,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>136</v>
-      </c>
       <c r="C2" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1696,22 +1696,25 @@
       <c r="H2" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="I2" t="s" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1722,48 +1725,54 @@
       <c r="H3" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="I3" t="s" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="I4" t="s" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1774,31 +1783,37 @@
       <c r="H5" t="s" s="0">
         <v>72</v>
       </c>
+      <c r="I5" t="s" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
         <v>72</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1819,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2">
@@ -1827,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
@@ -1835,7 +1850,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1843,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
@@ -1851,15 +1866,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1867,39 +1882,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
         <v>170</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1917,57 +1924,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>175</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" t="s" s="40">
         <v>176</v>
-      </c>
-      <c r="I1" t="s" s="40">
-        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>181</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>182</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>183</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>184</v>
@@ -1996,7 +2003,7 @@
         <v>190</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>191</v>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
   <si>
     <t>Course Code</t>
   </si>
@@ -228,346 +228,343 @@
     <t>Fall 2025</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
+    <t>F0001</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Computational Theory</t>
+  </si>
+  <si>
+    <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>F0002</t>
+  </si>
+  <si>
+    <t>Master's</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>bronte@university.edu</t>
+  </si>
+  <si>
+    <t>F0003</t>
+  </si>
+  <si>
+    <t>Dr. Grace Hopper</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>hopper@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 203</t>
+  </si>
+  <si>
+    <t>Intro to Programming</t>
+  </si>
+  <si>
+    <t>F0004</t>
+  </si>
+  <si>
+    <t>copeland@university.edu</t>
+  </si>
+  <si>
+    <t>F0005</t>
+  </si>
+  <si>
+    <t>Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Water and Soil</t>
+  </si>
+  <si>
+    <t>gharabaghi@university.edu</t>
+  </si>
+  <si>
+    <t>Lab 202</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry</t>
+  </si>
+  <si>
+    <t>BIO300</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>MUSIC102</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>PSYCHO100</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Event Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Header Picture</t>
+  </si>
+  <si>
+    <t>Registered Students</t>
+  </si>
+  <si>
+    <t>EV001</t>
+  </si>
+  <si>
+    <t>Welcome Seminar</t>
+  </si>
+  <si>
+    <t>Orientation week</t>
+  </si>
+  <si>
+    <t>Auditorium</t>
+  </si>
+  <si>
+    <t>09/01/2025 10:00</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
     <t>file:/C:/Users/adria/OneDrive/Pictures/Screenshots%201/Screenshot%202025-04-02%20184051.png</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>F0001</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Computational Theory</t>
-  </si>
-  <si>
-    <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>F0002</t>
-  </si>
-  <si>
-    <t>Master's</t>
-  </si>
-  <si>
-    <t>English Literature</t>
-  </si>
-  <si>
-    <t>bronte@university.edu</t>
-  </si>
-  <si>
-    <t>F0003</t>
-  </si>
-  <si>
-    <t>Dr. Grace Hopper</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>hopper@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 203</t>
-  </si>
-  <si>
-    <t>Intro to Programming</t>
-  </si>
-  <si>
-    <t>F0004</t>
-  </si>
-  <si>
-    <t>copeland@university.edu</t>
-  </si>
-  <si>
-    <t>F0005</t>
-  </si>
-  <si>
-    <t>Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Water and Soil</t>
-  </si>
-  <si>
-    <t>gharabaghi@university.edu</t>
-  </si>
-  <si>
-    <t>Lab 202</t>
-  </si>
-  <si>
-    <t>Subject Name</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry</t>
-  </si>
-  <si>
-    <t>BIO300</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>MUSIC102</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>PSYCHO100</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>Event Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Date and Time</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Header Picture</t>
-  </si>
-  <si>
-    <t>Registered Students</t>
-  </si>
-  <si>
-    <t>EV001</t>
-  </si>
-  <si>
-    <t>Welcome Seminar</t>
-  </si>
-  <si>
-    <t>Orientation week</t>
-  </si>
-  <si>
-    <t>Auditorium</t>
-  </si>
-  <si>
-    <t>09/01/2025 10:00</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>custom</t>
   </si>
   <si>
     <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson</t>
@@ -1313,13 +1310,13 @@
         <v>69</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.5</v>
@@ -1330,19 +1327,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>84</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>85</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>78</v>
@@ -1351,13 +1348,13 @@
         <v>69</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>86</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.5</v>
@@ -1368,19 +1365,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>68</v>
@@ -1389,10 +1386,10 @@
         <v>69</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>71</v>
@@ -1406,19 +1403,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>97</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>68</v>
@@ -1427,13 +1424,13 @@
         <v>69</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>99</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>0.5</v>
@@ -1444,19 +1441,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="C7" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>104</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>105</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>78</v>
@@ -1465,13 +1462,13 @@
         <v>69</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.5</v>
@@ -1482,19 +1479,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>111</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>68</v>
@@ -1503,13 +1500,13 @@
         <v>69</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.4</v>
@@ -1520,19 +1517,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="C9" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>117</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>118</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>78</v>
@@ -1541,13 +1538,13 @@
         <v>69</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s" s="0">
         <v>119</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.5</v>
@@ -1558,19 +1555,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>124</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>68</v>
@@ -1579,10 +1576,10 @@
         <v>69</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>71</v>
@@ -1596,19 +1593,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="D11" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>129</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>130</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>78</v>
@@ -1617,13 +1614,13 @@
         <v>69</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>0.2</v>
@@ -1647,25 +1644,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s" s="23">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="24">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s" s="25">
         <v>133</v>
-      </c>
-      <c r="D1" t="s" s="25">
-        <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
         <v>55</v>
       </c>
       <c r="F1" t="s" s="27">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s" s="28">
         <v>135</v>
-      </c>
-      <c r="G1" t="s" s="28">
-        <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
         <v>62</v>
@@ -1673,19 +1670,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>139</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1697,24 +1694,24 @@
         <v>72</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1726,53 +1723,53 @@
         <v>72</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>150</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>72</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>143</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1784,27 +1781,27 @@
         <v>72</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>156</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>157</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
@@ -1813,7 +1810,7 @@
         <v>72</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -1842,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
@@ -1850,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1858,7 +1855,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1866,15 +1863,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -1882,31 +1879,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>169</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1924,89 +1921,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s" s="33">
         <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>174</v>
       </c>
-      <c r="H1" t="s" s="39">
+      <c r="I1" t="s" s="40">
         <v>175</v>
-      </c>
-      <c r="I1" t="s" s="40">
-        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>181</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>183</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>188</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>189</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>190</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,372 +63,375 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>F0001</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>F0002</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>Dr. Alan Turing</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>F0001</t>
-  </si>
-  <si>
     <t>Ph.D.</t>
   </si>
   <si>
@@ -438,9 +441,6 @@
     <t>turing@university.edu</t>
   </si>
   <si>
-    <t>F0002</t>
-  </si>
-  <si>
     <t>Master's</t>
   </si>
   <si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>Free</t>
-  </si>
-  <si>
-    <t>file:/C:/Users/adria/OneDrive/Pictures/Screenshots%201/Screenshot%202025-04-02%20184051.png</t>
   </si>
   <si>
     <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson</t>
@@ -992,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1000,10 +997,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>11</v>
@@ -1012,16 +1009,16 @@
         <v>42.0</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1029,10 +1026,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>11</v>
@@ -1041,16 +1038,16 @@
         <v>50.0</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1058,10 +1055,10 @@
         <v>4.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
@@ -1070,16 +1067,16 @@
         <v>50.0</v>
       </c>
       <c r="F7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1087,28 +1084,28 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1116,7 +1113,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>17</v>
@@ -1128,16 +1125,16 @@
         <v>25.0</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1142,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
@@ -1157,16 +1154,16 @@
         <v>25.0</v>
       </c>
       <c r="F10" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1174,10 +1171,10 @@
         <v>6.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>11</v>
@@ -1186,16 +1183,16 @@
         <v>50.0</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1213,420 +1210,420 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s" s="13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s" s="15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s" s="16">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s" s="17">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s" s="18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s" s="19">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s" s="20">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s" s="21">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="n" s="0">
         <v>0.6</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.4</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n" s="0">
         <v>0.5</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>0.2</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1644,65 +1641,65 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s" s="23">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="28">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>141</v>
@@ -1714,16 +1711,16 @@
         <v>143</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1734,7 +1731,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>146</v>
@@ -1749,10 +1746,10 @@
         <v>149</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1760,7 +1757,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>141</v>
@@ -1772,16 +1769,16 @@
         <v>151</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1792,7 +1789,7 @@
         <v>153</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>154</v>
@@ -1804,13 +1801,13 @@
         <v>156</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1849,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>160</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>161</v>
@@ -1876,7 +1873,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>164</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>165</v>
@@ -1924,7 +1921,7 @@
         <v>170</v>
       </c>
       <c r="B1" t="s" s="33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="34">
         <v>171</v>
@@ -1971,39 +1968,39 @@
         <v>181</v>
       </c>
       <c r="H2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>188</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>189</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
   <si>
     <t>Course Code</t>
   </si>
@@ -63,382 +63,388 @@
     <t>Room 101</t>
   </si>
   <si>
+    <t>Dr. Alan Turing</t>
+  </si>
+  <si>
+    <t>Literature Basics</t>
+  </si>
+  <si>
+    <t>ENG101</t>
+  </si>
+  <si>
+    <t>Tue/Thu 10-12 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 102</t>
+  </si>
+  <si>
+    <t>Prof. Emily Brontë</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Mon/Wed 10-12 PM</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>CS201</t>
+  </si>
+  <si>
+    <t>Tue/Thu 12-2 PM</t>
+  </si>
+  <si>
+    <t>12/16/2025 12:30</t>
+  </si>
+  <si>
+    <t>Room 103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bahar Nozari </t>
+  </si>
+  <si>
+    <t>Introduction to Chemistry</t>
+  </si>
+  <si>
+    <t>CHEM200</t>
+  </si>
+  <si>
+    <t>Mon/ Thu 3-4 PM</t>
+  </si>
+  <si>
+    <t>12/14/2025 04:00</t>
+  </si>
+  <si>
+    <t>Room 201</t>
+  </si>
+  <si>
+    <t>Dr. Lucka Lucku</t>
+  </si>
+  <si>
+    <t>Mon/ Tue 5-6 PM</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Fri/ Thu 2-3 PM</t>
+  </si>
+  <si>
+    <t>Introduction to French</t>
+  </si>
+  <si>
+    <t>Tue/Thur 4:30 - 5:30 PM</t>
+  </si>
+  <si>
+    <t>12/13/2025 10:00</t>
+  </si>
+  <si>
+    <t>Room 202</t>
+  </si>
+  <si>
+    <t>Dr. Lakyn Copeland</t>
+  </si>
+  <si>
+    <t>Tue/Thur 5:30 - 6:30 PM</t>
+  </si>
+  <si>
+    <t>Water Resources</t>
+  </si>
+  <si>
+    <t>ENGG402</t>
+  </si>
+  <si>
+    <t>Mon/Fri 9:00 - 10:30</t>
+  </si>
+  <si>
+    <t>12/01/2025 09:00</t>
+  </si>
+  <si>
+    <t>Room 203</t>
+  </si>
+  <si>
+    <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>ENG101, MATH001</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>default123%</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
     <t>F0001</t>
   </si>
   <si>
-    <t>Literature Basics</t>
-  </si>
-  <si>
-    <t>ENG101</t>
-  </si>
-  <si>
-    <t>Tue/Thu 10-12 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 102</t>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Computational Theory</t>
+  </si>
+  <si>
+    <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>default123</t>
   </si>
   <si>
     <t>F0002</t>
-  </si>
-  <si>
-    <t>Section 2</t>
-  </si>
-  <si>
-    <t>Mon/Wed 10-12 PM</t>
-  </si>
-  <si>
-    <t>Prof. Emily Brontë</t>
-  </si>
-  <si>
-    <t>Introduction to Programming</t>
-  </si>
-  <si>
-    <t>CS201</t>
-  </si>
-  <si>
-    <t>Tue/Thu 12-2 PM</t>
-  </si>
-  <si>
-    <t>12/16/2025 12:30</t>
-  </si>
-  <si>
-    <t>Room 103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
-  </si>
-  <si>
-    <t>Introduction to Chemistry</t>
-  </si>
-  <si>
-    <t>CHEM200</t>
-  </si>
-  <si>
-    <t>Mon/ Thu 3-4 PM</t>
-  </si>
-  <si>
-    <t>12/14/2025 04:00</t>
-  </si>
-  <si>
-    <t>Room 201</t>
-  </si>
-  <si>
-    <t>Dr. Lucka Lucku</t>
-  </si>
-  <si>
-    <t>Mon/ Tue 5-6 PM</t>
-  </si>
-  <si>
-    <t>Section 3</t>
-  </si>
-  <si>
-    <t>Fri/ Thu 2-3 PM</t>
-  </si>
-  <si>
-    <t>Introduction to French</t>
-  </si>
-  <si>
-    <t>Tue/Thur 4:30 - 5:30 PM</t>
-  </si>
-  <si>
-    <t>12/13/2025 10:00</t>
-  </si>
-  <si>
-    <t>Room 202</t>
-  </si>
-  <si>
-    <t>Dr. Lakyn Copeland</t>
-  </si>
-  <si>
-    <t>Tue/Thur 5:30 - 6:30 PM</t>
-  </si>
-  <si>
-    <t>Water Resources</t>
-  </si>
-  <si>
-    <t>ENGG402</t>
-  </si>
-  <si>
-    <t>Mon/Fri 9:00 - 10:30</t>
-  </si>
-  <si>
-    <t>12/01/2025 09:00</t>
-  </si>
-  <si>
-    <t>Room 203</t>
-  </si>
-  <si>
-    <t>Dr. Albozr Gharabaghi</t>
-  </si>
-  <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>Dr. Alan Turing</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Computational Theory</t>
-  </si>
-  <si>
-    <t>turing@university.edu</t>
   </si>
   <si>
     <t>Master's</t>
@@ -989,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -997,10 +1003,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>11</v>
@@ -1009,16 +1015,16 @@
         <v>42.0</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1026,10 +1032,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>11</v>
@@ -1038,16 +1044,16 @@
         <v>50.0</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="I6" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1055,10 +1061,10 @@
         <v>4.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
@@ -1067,16 +1073,16 @@
         <v>50.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="I7" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1084,28 +1090,28 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>32</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="I8" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1113,7 +1119,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>17</v>
@@ -1125,16 +1131,16 @@
         <v>25.0</v>
       </c>
       <c r="F9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="H9" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="I9" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1142,7 +1148,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
@@ -1154,16 +1160,16 @@
         <v>25.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="I10" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1171,10 +1177,10 @@
         <v>6.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>47</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>11</v>
@@ -1183,16 +1189,16 @@
         <v>50.0</v>
       </c>
       <c r="F11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="I11" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1210,75 +1216,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="C1" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="D1" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="E1" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="F1" t="s" s="15">
         <v>56</v>
       </c>
-      <c r="F1" t="s" s="15">
+      <c r="G1" t="s" s="16">
         <v>57</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="H1" t="s" s="17">
         <v>58</v>
       </c>
-      <c r="H1" t="s" s="17">
+      <c r="I1" t="s" s="18">
         <v>59</v>
       </c>
-      <c r="I1" t="s" s="18">
+      <c r="J1" t="s" s="19">
         <v>60</v>
       </c>
-      <c r="J1" t="s" s="19">
+      <c r="K1" t="s" s="20">
         <v>61</v>
       </c>
-      <c r="K1" t="s" s="20">
+      <c r="L1" t="s" s="21">
         <v>62</v>
-      </c>
-      <c r="L1" t="s" s="21">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>72</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.4</v>
+        <v>40.0</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>73</v>
@@ -1304,19 +1310,19 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I3" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>80</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L3" t="s" s="0">
         <v>73</v>
@@ -1342,10 +1348,10 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>86</v>
@@ -1354,7 +1360,7 @@
         <v>87</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>73</v>
@@ -1377,13 +1383,13 @@
         <v>92</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>93</v>
@@ -1392,7 +1398,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.6</v>
+        <v>60.0</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>73</v>
@@ -1415,13 +1421,13 @@
         <v>98</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>99</v>
@@ -1430,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L6" t="s" s="0">
         <v>73</v>
@@ -1456,10 +1462,10 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I7" t="s" s="0">
         <v>106</v>
@@ -1468,7 +1474,7 @@
         <v>107</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L7" t="s" s="0">
         <v>73</v>
@@ -1491,13 +1497,13 @@
         <v>112</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>113</v>
@@ -1506,7 +1512,7 @@
         <v>100</v>
       </c>
       <c r="K8" t="n" s="0">
-        <v>0.4</v>
+        <v>40.0</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>73</v>
@@ -1532,10 +1538,10 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I9" t="s" s="0">
         <v>119</v>
@@ -1544,7 +1550,7 @@
         <v>120</v>
       </c>
       <c r="K9" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L9" t="s" s="0">
         <v>73</v>
@@ -1567,13 +1573,13 @@
         <v>125</v>
       </c>
       <c r="F10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>126</v>
@@ -1582,7 +1588,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>0.5</v>
+        <v>50.0</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>73</v>
@@ -1608,10 +1614,10 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>99</v>
@@ -1620,7 +1626,7 @@
         <v>131</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>0.2</v>
+        <v>20.0</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>73</v>
@@ -1644,7 +1650,7 @@
         <v>132</v>
       </c>
       <c r="B1" t="s" s="23">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="24">
         <v>133</v>
@@ -1653,7 +1659,7 @@
         <v>134</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s" s="27">
         <v>135</v>
@@ -1662,15 +1668,15 @@
         <v>136</v>
       </c>
       <c r="H1" t="s" s="29">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>137</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>138</v>
@@ -1682,132 +1688,132 @@
         <v>140</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>138</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>142</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>73</v>
-      </c>
       <c r="I5" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>138</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -1836,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -1844,39 +1850,39 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -1884,23 +1890,23 @@
         <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1918,89 +1924,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s" s="33">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s" s="39">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s" s="40">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
   <si>
     <t>Course Code</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Dr. Albozr Gharabaghi</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Student ID</t>
@@ -876,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1199,6 +1205,35 @@
       </c>
       <c r="I11" t="s" s="0">
         <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1216,420 +1251,420 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s" s="12">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s" s="15">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s" s="16">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s" s="17">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s" s="18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s" s="19">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s" s="20">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s" s="21">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K2" t="n" s="0">
         <v>40.0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>79</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" t="n" s="0">
         <v>60.0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K6" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K7" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>40.0</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K10" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" t="n" s="0">
         <v>20.0</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1647,45 +1682,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="22">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s" s="23">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="28">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s" s="29">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1694,27 +1729,27 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1723,56 +1758,56 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1781,39 +1816,39 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="31">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -1842,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -1850,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -1858,7 +1893,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -1866,15 +1901,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -1882,31 +1917,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1924,89 +1959,89 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="32">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s" s="33">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s" s="34">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s" s="35">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="36">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s" s="37">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="38">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s" s="39">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s" s="40">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="194">
   <si>
     <t>Course Code</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Room 103</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Bahar Nozari </t>
+    <t>Prof. Bahar Nozari</t>
   </si>
   <si>
     <t>Introduction to Chemistry</t>
@@ -171,81 +171,81 @@
     <t>Dr. Albozr Gharabaghi</t>
   </si>
   <si>
-    <t>Linear Algebra</t>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Academic Level</t>
+  </si>
+  <si>
+    <t>Current Semester</t>
+  </si>
+  <si>
+    <t>Profile Picture</t>
+  </si>
+  <si>
+    <t>Registered Subjects</t>
+  </si>
+  <si>
+    <t>Thesis Title</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Registered Courses</t>
+  </si>
+  <si>
+    <t>S20250001</t>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+  </si>
+  <si>
+    <t>123 Maple St.</t>
+  </si>
+  <si>
+    <t>555-1234</t>
+  </si>
+  <si>
+    <t>alice@example.edu</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>40.0%</t>
+  </si>
+  <si>
+    <t>default123</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Academic Level</t>
-  </si>
-  <si>
-    <t>Current Semester</t>
-  </si>
-  <si>
-    <t>Profile Picture</t>
-  </si>
-  <si>
-    <t>Registered Subjects</t>
-  </si>
-  <si>
-    <t>Thesis Title</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>S20250001</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>123 Maple St.</t>
-  </si>
-  <si>
-    <t>555-1234</t>
-  </si>
-  <si>
-    <t>alice@example.edu</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>ENG101, MATH001</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>default123%</t>
-  </si>
-  <si>
     <t>S20250002</t>
   </si>
   <si>
@@ -267,6 +267,9 @@
     <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
   </si>
   <si>
+    <t>50.0%</t>
+  </si>
+  <si>
     <t>S20250003</t>
   </si>
   <si>
@@ -306,6 +309,9 @@
     <t>Bio300</t>
   </si>
   <si>
+    <t>60.0%</t>
+  </si>
+  <si>
     <t>S20250005</t>
   </si>
   <si>
@@ -420,6 +426,9 @@
     <t>The Renaissance: Art, Culture, and Society</t>
   </si>
   <si>
+    <t>20.0%</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -447,9 +456,6 @@
     <t>turing@university.edu</t>
   </si>
   <si>
-    <t>default123</t>
-  </si>
-  <si>
     <t>F0002</t>
   </si>
   <si>
@@ -570,9 +576,6 @@
     <t>Auditorium</t>
   </si>
   <si>
-    <t>09/01/2025 10:00</t>
-  </si>
-  <si>
     <t>Free</t>
   </si>
   <si>
@@ -589,9 +592,6 @@
   </si>
   <si>
     <t>Lab 301</t>
-  </si>
-  <si>
-    <t>10/05/2025 14:00</t>
   </si>
   <si>
     <t>Paid ($20)</t>
@@ -604,14 +604,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="41">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm"/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -834,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -876,13 +883,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,35 +1216,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E12" t="n" s="0">
-        <v>30.0</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1243,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1251,77 +1231,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="D1" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="E1" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="F1" t="s" s="15">
         <v>56</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="G1" t="s" s="16">
         <v>57</v>
       </c>
-      <c r="F1" t="s" s="15">
+      <c r="H1" t="s" s="17">
         <v>58</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="I1" t="s" s="18">
         <v>59</v>
       </c>
-      <c r="H1" t="s" s="17">
+      <c r="J1" t="s" s="19">
         <v>60</v>
       </c>
-      <c r="I1" t="s" s="18">
+      <c r="K1" t="s" s="20">
         <v>61</v>
       </c>
-      <c r="J1" t="s" s="19">
+      <c r="L1" t="s" s="21">
         <v>62</v>
       </c>
-      <c r="K1" t="s" s="20">
+      <c r="M1" t="s" s="22">
         <v>63</v>
-      </c>
-      <c r="L1" t="s" s="21">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="K2" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="L2" t="s" s="0">
+      <c r="M2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1345,10 +1331,10 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>72</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>25</v>
@@ -1356,314 +1342,341 @@
       <c r="J3" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="K3" t="n" s="0">
-        <v>50.0</v>
+      <c r="K3" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M3" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>81</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I4" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="K4" t="n" s="0">
-        <v>50.0</v>
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="I5" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s" s="0">
+      <c r="K5" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="K5" t="n" s="0">
-        <v>60.0</v>
-      </c>
-      <c r="L5" t="s" s="0">
+      <c r="M5" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I6" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="K6" t="n" s="0">
-        <v>50.0</v>
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H7" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I7" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="K7" t="n" s="0">
-        <v>50.0</v>
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H8" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I8" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="K8" t="n" s="0">
-        <v>40.0</v>
+        <v>104</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>73</v>
       </c>
       <c r="L8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H9" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="K9" t="n" s="0">
-        <v>50.0</v>
+        <v>124</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="I10" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="J10" t="s" s="0">
+      <c r="K10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="K10" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="L10" t="s" s="0">
+      <c r="M10" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="H11" t="s" s="0">
-        <v>72</v>
-      </c>
       <c r="I11" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="K11" t="n" s="0">
-        <v>20.0</v>
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1681,46 +1694,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="22">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s" s="23">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s" s="24">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s" s="25">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s" s="26">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s" s="27">
+      <c r="A1" t="s" s="23">
         <v>137</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="B1" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="25">
         <v>138</v>
       </c>
-      <c r="H1" t="s" s="29">
-        <v>64</v>
+      <c r="D1" t="s" s="26">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s" s="28">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s" s="29">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s" s="30">
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>34</v>
@@ -1729,27 +1742,27 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1758,56 +1771,56 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1816,39 +1829,39 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1865,11 +1878,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="30">
+      <c r="A1" t="s" s="31">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="31">
-        <v>161</v>
+      <c r="B1" t="s" s="32">
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -1877,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -1885,7 +1898,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -1893,7 +1906,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -1901,15 +1914,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -1917,31 +1930,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1958,78 +1971,78 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="32">
-        <v>174</v>
-      </c>
-      <c r="B1" t="s" s="33">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s" s="34">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s" s="35">
+      <c r="A1" t="s" s="33">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s" s="34">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="35">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s" s="36">
         <v>7</v>
       </c>
-      <c r="E1" t="s" s="36">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s" s="37">
+      <c r="E1" t="s" s="37">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s" s="38">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="38">
-        <v>177</v>
-      </c>
-      <c r="H1" t="s" s="39">
-        <v>178</v>
-      </c>
-      <c r="I1" t="s" s="40">
+      <c r="G1" t="s" s="39">
         <v>179</v>
+      </c>
+      <c r="H1" t="s" s="40">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s" s="41">
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="E2" t="n" s="42">
+        <v>45841.41679986111</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="E3" t="s" s="0">
         <v>191</v>
+      </c>
+      <c r="E3" t="n" s="42">
+        <v>45935.583333333336</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>50.0</v>
@@ -2038,7 +2051,7 @@
         <v>192</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>193</v>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
   <si>
     <t>Course Code</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Registered Courses</t>
-  </si>
-  <si>
     <t>S20250001</t>
   </si>
   <si>
@@ -237,235 +234,226 @@
     <t>_</t>
   </si>
   <si>
-    <t>40.0%</t>
+    <t>default123%</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
+    <t>S20250004</t>
+  </si>
+  <si>
+    <t>Lucka Racki</t>
+  </si>
+  <si>
+    <t>1767 Jane St.</t>
+  </si>
+  <si>
+    <t>439-9966</t>
+  </si>
+  <si>
+    <t>lucka@example.edu</t>
+  </si>
+  <si>
+    <t>Bio300</t>
+  </si>
+  <si>
+    <t>S20250005</t>
+  </si>
+  <si>
+    <t>David Lee</t>
+  </si>
+  <si>
+    <t>90 Elm St.</t>
+  </si>
+  <si>
+    <t>555-3456</t>
+  </si>
+  <si>
+    <t>lee@example.edu</t>
+  </si>
+  <si>
+    <t>HIST101</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S20250006</t>
+  </si>
+  <si>
+    <t>Emily Brown</t>
+  </si>
+  <si>
+    <t>111 Oak Ave.</t>
+  </si>
+  <si>
+    <t>555-7890</t>
+  </si>
+  <si>
+    <t>brown@example.edu</t>
+  </si>
+  <si>
+    <t>Chem200</t>
+  </si>
+  <si>
+    <t>Synthesis and Characterization of Novel Catalysts</t>
+  </si>
+  <si>
+    <t>S20250007</t>
+  </si>
+  <si>
+    <t>George Smith</t>
+  </si>
+  <si>
+    <t>222 Pine Rd.</t>
+  </si>
+  <si>
+    <t>555-2345</t>
+  </si>
+  <si>
+    <t>smith@example.edu</t>
+  </si>
+  <si>
+    <t>Music102</t>
+  </si>
+  <si>
+    <t>S20250008</t>
+  </si>
+  <si>
+    <t>Helen Jones</t>
+  </si>
+  <si>
+    <t>333 Maple Dr.</t>
+  </si>
+  <si>
+    <t>555-4567</t>
+  </si>
+  <si>
+    <t>jones@example.edu</t>
+  </si>
+  <si>
+    <t>PSYCHO100, Music102, HIST101</t>
+  </si>
+  <si>
+    <t>The Effects of Stress on Cognitive Function</t>
+  </si>
+  <si>
+    <t>S20250009</t>
+  </si>
+  <si>
+    <t>Isaac Clark</t>
+  </si>
+  <si>
+    <t>444 Cedar Ln.</t>
+  </si>
+  <si>
+    <t>555-8901</t>
+  </si>
+  <si>
+    <t>clark@example.edu</t>
+  </si>
+  <si>
+    <t>BIo300</t>
+  </si>
+  <si>
+    <t>S20250010</t>
+  </si>
+  <si>
+    <t>Jennifer Davis</t>
+  </si>
+  <si>
+    <t>555 Oakwood Pl.</t>
+  </si>
+  <si>
+    <t>davis@example.edu</t>
+  </si>
+  <si>
+    <t>The Renaissance: Art, Culture, and Society</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Research Interest</t>
+  </si>
+  <si>
+    <t>Office Location</t>
+  </si>
+  <si>
+    <t>Courses Offered</t>
+  </si>
+  <si>
+    <t>F0001</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Computational Theory</t>
+  </si>
+  <si>
+    <t>turing@university.edu</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>F0002</t>
+  </si>
+  <si>
+    <t>Master's</t>
+  </si>
+  <si>
+    <t>English Literature</t>
+  </si>
+  <si>
+    <t>bronte@university.edu</t>
   </si>
   <si>
     <t>default123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
-    <t>S20250004</t>
-  </si>
-  <si>
-    <t>Lucka Racki</t>
-  </si>
-  <si>
-    <t>1767 Jane St.</t>
-  </si>
-  <si>
-    <t>439-9966</t>
-  </si>
-  <si>
-    <t>lucka@example.edu</t>
-  </si>
-  <si>
-    <t>Bio300</t>
-  </si>
-  <si>
-    <t>60.0%</t>
-  </si>
-  <si>
-    <t>S20250005</t>
-  </si>
-  <si>
-    <t>David Lee</t>
-  </si>
-  <si>
-    <t>90 Elm St.</t>
-  </si>
-  <si>
-    <t>555-3456</t>
-  </si>
-  <si>
-    <t>lee@example.edu</t>
-  </si>
-  <si>
-    <t>HIST101</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>S20250006</t>
-  </si>
-  <si>
-    <t>Emily Brown</t>
-  </si>
-  <si>
-    <t>111 Oak Ave.</t>
-  </si>
-  <si>
-    <t>555-7890</t>
-  </si>
-  <si>
-    <t>brown@example.edu</t>
-  </si>
-  <si>
-    <t>Chem200</t>
-  </si>
-  <si>
-    <t>Synthesis and Characterization of Novel Catalysts</t>
-  </si>
-  <si>
-    <t>S20250007</t>
-  </si>
-  <si>
-    <t>George Smith</t>
-  </si>
-  <si>
-    <t>222 Pine Rd.</t>
-  </si>
-  <si>
-    <t>555-2345</t>
-  </si>
-  <si>
-    <t>smith@example.edu</t>
-  </si>
-  <si>
-    <t>Music102</t>
-  </si>
-  <si>
-    <t>S20250008</t>
-  </si>
-  <si>
-    <t>Helen Jones</t>
-  </si>
-  <si>
-    <t>333 Maple Dr.</t>
-  </si>
-  <si>
-    <t>555-4567</t>
-  </si>
-  <si>
-    <t>jones@example.edu</t>
-  </si>
-  <si>
-    <t>PSYCHO100, Music102, HIST101</t>
-  </si>
-  <si>
-    <t>The Effects of Stress on Cognitive Function</t>
-  </si>
-  <si>
-    <t>S20250009</t>
-  </si>
-  <si>
-    <t>Isaac Clark</t>
-  </si>
-  <si>
-    <t>444 Cedar Ln.</t>
-  </si>
-  <si>
-    <t>555-8901</t>
-  </si>
-  <si>
-    <t>clark@example.edu</t>
-  </si>
-  <si>
-    <t>BIo300</t>
-  </si>
-  <si>
-    <t>S20250010</t>
-  </si>
-  <si>
-    <t>Jennifer Davis</t>
-  </si>
-  <si>
-    <t>555 Oakwood Pl.</t>
-  </si>
-  <si>
-    <t>davis@example.edu</t>
-  </si>
-  <si>
-    <t>The Renaissance: Art, Culture, and Society</t>
-  </si>
-  <si>
-    <t>20.0%</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Research Interest</t>
-  </si>
-  <si>
-    <t>Office Location</t>
-  </si>
-  <si>
-    <t>Courses Offered</t>
-  </si>
-  <si>
-    <t>F0001</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>Computational Theory</t>
-  </si>
-  <si>
-    <t>turing@university.edu</t>
-  </si>
-  <si>
-    <t>F0002</t>
-  </si>
-  <si>
-    <t>Master's</t>
-  </si>
-  <si>
-    <t>English Literature</t>
-  </si>
-  <si>
-    <t>bronte@university.edu</t>
   </si>
   <si>
     <t>F0003</t>
@@ -605,20 +593,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm"/>
+    <numFmt numFmtId="164" formatCode="MM/dd/yyyy HH:mm"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -883,7 +866,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -1223,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1266,418 +1249,385 @@
       <c r="L1" t="s" s="21">
         <v>62</v>
       </c>
-      <c r="M1" t="s" s="22">
-        <v>63</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="L2" t="s" s="0">
         <v>72</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="G3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>71</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>50.0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="J4" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>83</v>
+      <c r="K4" t="n" s="0">
+        <v>50.0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="F5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="J5" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="J5" t="s" s="0">
+      <c r="K5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>72</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="J6" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="C6" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>83</v>
+      <c r="K6" t="n" s="0">
+        <v>50.0</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="J7" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>83</v>
+      <c r="K7" t="n" s="0">
+        <v>50.0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>117</v>
-      </c>
       <c r="J8" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="K8" t="n" s="0">
+        <v>40.0</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="J9" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="C9" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>83</v>
+      <c r="K9" t="n" s="0">
+        <v>50.0</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="J10" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="J10" t="s" s="0">
+      <c r="K10" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>72</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H11" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I11" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>135</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="K11" t="n" s="0">
+        <v>20.0</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="M11" t="s" s="0">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1694,75 +1644,75 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="23">
-        <v>137</v>
-      </c>
-      <c r="B1" t="s" s="24">
+      <c r="A1" t="s" s="22">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s" s="23">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="25">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s" s="26">
-        <v>139</v>
-      </c>
-      <c r="E1" t="s" s="27">
+      <c r="C1" t="s" s="24">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s" s="25">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s" s="26">
         <v>55</v>
       </c>
-      <c r="F1" t="s" s="28">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s" s="29">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s" s="30">
+      <c r="F1" t="s" s="27">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s" s="28">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s" s="29">
         <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>42</v>
@@ -1771,56 +1721,56 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>153</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>155</v>
-      </c>
       <c r="H4" t="s" s="0">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>34</v>
@@ -1829,39 +1779,39 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>158</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>159</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>162</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1878,11 +1828,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="31">
+      <c r="A1" t="s" s="30">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="32">
-        <v>163</v>
+      <c r="B1" t="s" s="31">
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -1890,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -1898,7 +1848,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -1906,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -1914,15 +1864,15 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -1930,31 +1880,31 @@
         <v>46</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1971,75 +1921,75 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="33">
+      <c r="A1" t="s" s="32">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s" s="33">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s" s="34">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s" s="35">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s" s="36">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s" s="37">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="38">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s" s="39">
         <v>176</v>
       </c>
-      <c r="B1" t="s" s="34">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s" s="35">
+      <c r="I1" t="s" s="40">
         <v>177</v>
-      </c>
-      <c r="D1" t="s" s="36">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s" s="37">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s" s="38">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s" s="39">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s" s="40">
-        <v>180</v>
-      </c>
-      <c r="I1" t="s" s="41">
-        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="E2" t="n" s="42">
-        <v>45841.41679986111</v>
+        <v>181</v>
+      </c>
+      <c r="E2" t="n" s="41">
+        <v>45901.416666666664</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" t="n" s="42">
         <v>45935.583333333336</v>
@@ -2048,13 +1998,13 @@
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -240,34 +240,34 @@
     <t>40.0%</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
     <t>default123</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>50.0%</t>
   </si>
   <si>
     <t>S20250003</t>
@@ -1305,30 +1305,30 @@
         <v>73</v>
       </c>
       <c r="L2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>80</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>70</v>
@@ -1340,16 +1340,16 @@
         <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="L3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="M3" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1369,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>70</v>
@@ -1384,13 +1384,13 @@
         <v>90</v>
       </c>
       <c r="K4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="M4" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1428,10 +1428,10 @@
         <v>97</v>
       </c>
       <c r="L5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M5" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M5" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1466,13 +1466,13 @@
         <v>104</v>
       </c>
       <c r="K6" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="M6" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1492,7 +1492,7 @@
         <v>109</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>70</v>
@@ -1507,13 +1507,13 @@
         <v>111</v>
       </c>
       <c r="K7" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="M7" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1551,10 +1551,10 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1574,7 +1574,7 @@
         <v>122</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>70</v>
@@ -1589,13 +1589,13 @@
         <v>124</v>
       </c>
       <c r="K9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="M9" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1630,13 +1630,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="M10" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1656,7 +1656,7 @@
         <v>134</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>70</v>
@@ -1674,10 +1674,10 @@
         <v>136</v>
       </c>
       <c r="L11" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="M11" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="0">
         <v>71</v>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s" s="0">
         <v>71</v>
@@ -1800,7 +1800,7 @@
         <v>155</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s" s="0">
         <v>71</v>
@@ -1829,7 +1829,7 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>71</v>
@@ -1858,7 +1858,7 @@
         <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s" s="0">
         <v>71</v>
@@ -2013,7 +2013,7 @@
         <v>185</v>
       </c>
       <c r="E2" t="n" s="42">
-        <v>45841.41679986111</v>
+        <v>45901.416666666664</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>

--- a/src/main/resources/UMS_Data1.xlsx
+++ b/src/main/resources/UMS_Data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="197">
   <si>
     <t>Course Code</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Room 103</t>
   </si>
   <si>
-    <t>Prof. Bahar Nozari</t>
-  </si>
-  <si>
     <t>Introduction to Chemistry</t>
   </si>
   <si>
@@ -234,63 +231,72 @@
     <t>default</t>
   </si>
   <si>
+    <t>ENG101, MATH001</t>
+  </si>
+  <si>
     <t>_</t>
   </si>
   <si>
     <t>40.0%</t>
   </si>
   <si>
+    <t>default1234</t>
+  </si>
+  <si>
+    <t>S20250002</t>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+  </si>
+  <si>
+    <t>456 Oak St.</t>
+  </si>
+  <si>
+    <t>555-5678</t>
+  </si>
+  <si>
+    <t>bob@example.edu</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>CS201, ENG101</t>
+  </si>
+  <si>
+    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>default123</t>
+  </si>
+  <si>
+    <t>S20250003</t>
+  </si>
+  <si>
+    <t>Carol Williams</t>
+  </si>
+  <si>
+    <t>789 Pine St.</t>
+  </si>
+  <si>
+    <t>555-9012</t>
+  </si>
+  <si>
+    <t>carol@example.edu</t>
+  </si>
+  <si>
+    <t>ENGG402, HIST101</t>
+  </si>
+  <si>
+    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>S20250002</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>456 Oak St.</t>
-  </si>
-  <si>
-    <t>555-5678</t>
-  </si>
-  <si>
-    <t>bob@example.edu</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
-    <t>"The detection of oil under ice by remote mode conversion of ultrasound"</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>default123</t>
-  </si>
-  <si>
-    <t>S20250003</t>
-  </si>
-  <si>
-    <t>Carol Williams</t>
-  </si>
-  <si>
-    <t>789 Pine St.</t>
-  </si>
-  <si>
-    <t>555-9012</t>
-  </si>
-  <si>
-    <t>carol@example.edu</t>
-  </si>
-  <si>
-    <t>ENGG402, HIST101</t>
-  </si>
-  <si>
-    <t>"On the economic optimality of marine reserves when fishing damages habitat"</t>
-  </si>
-  <si>
     <t>S20250004</t>
   </si>
   <si>
@@ -456,6 +462,9 @@
     <t>turing@university.edu</t>
   </si>
   <si>
+    <t>Calculus I, Introduction to Programming</t>
+  </si>
+  <si>
     <t>F0002</t>
   </si>
   <si>
@@ -579,7 +588,7 @@
     <t>Free</t>
   </si>
   <si>
-    <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson</t>
+    <t>Helen Jones, Jennifer Davis, Alice Smith, Bob Johnson, David Lee</t>
   </si>
   <si>
     <t>EV002</t>
@@ -940,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>30.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>12</v>
@@ -1039,7 +1048,7 @@
         <v>28</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1047,10 +1056,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>31</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>11</v>
@@ -1059,16 +1068,16 @@
         <v>50.0</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="I6" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1076,10 +1085,10 @@
         <v>4.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>22</v>
@@ -1088,16 +1097,16 @@
         <v>50.0</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="I7" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1105,28 +1114,28 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>31</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="I8" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1143,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>17</v>
@@ -1146,16 +1155,16 @@
         <v>25.0</v>
       </c>
       <c r="F9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="H9" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="I9" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1163,7 +1172,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>17</v>
@@ -1175,16 +1184,16 @@
         <v>25.0</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="I10" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -1192,10 +1201,10 @@
         <v>6.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>46</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>11</v>
@@ -1204,16 +1213,16 @@
         <v>50.0</v>
       </c>
       <c r="F11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="I11" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1231,72 +1240,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="B1" t="s" s="11">
+      <c r="C1" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="D1" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="E1" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="F1" t="s" s="15">
         <v>55</v>
       </c>
-      <c r="F1" t="s" s="15">
+      <c r="G1" t="s" s="16">
         <v>56</v>
       </c>
-      <c r="G1" t="s" s="16">
+      <c r="H1" t="s" s="17">
         <v>57</v>
       </c>
-      <c r="H1" t="s" s="17">
+      <c r="I1" t="s" s="18">
         <v>58</v>
       </c>
-      <c r="I1" t="s" s="18">
+      <c r="J1" t="s" s="19">
         <v>59</v>
       </c>
-      <c r="J1" t="s" s="19">
+      <c r="K1" t="s" s="20">
         <v>60</v>
       </c>
-      <c r="K1" t="s" s="20">
+      <c r="L1" t="s" s="21">
         <v>61</v>
       </c>
-      <c r="L1" t="s" s="21">
+      <c r="M1" t="s" s="22">
         <v>62</v>
-      </c>
-      <c r="M1" t="s" s="22">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>71</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>17</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>72</v>
@@ -1305,10 +1314,10 @@
         <v>73</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1331,353 +1340,353 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I3" t="s" s="0">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I4" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H5" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s" s="0">
         <v>72</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I6" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H7" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I7" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H8" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I8" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>73</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G9" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I9" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="H10" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H10" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I10" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s" s="0">
         <v>72</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="H11" t="s" s="0">
-        <v>71</v>
-      </c>
       <c r="I11" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1695,173 +1704,173 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="23">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="25">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s" s="28">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s" s="29">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s" s="30">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>15</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>9</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1882,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s" s="32">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -1890,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
@@ -1898,7 +1907,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -1906,55 +1915,55 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1972,45 +1981,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="33">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="34">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="35">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D1" t="s" s="36">
         <v>7</v>
       </c>
       <c r="E1" t="s" s="37">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F1" t="s" s="38">
         <v>4</v>
       </c>
       <c r="G1" t="s" s="39">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s" s="40">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I1" t="s" s="41">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E2" t="n" s="42">
         <v>45901.416666666664</v>
@@ -2019,27 +2028,27 @@
         <v>100.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E3" t="n" s="42">
         <v>45935.583333333336</v>
@@ -2048,13 +2057,13 @@
         <v>50.0</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
